--- a/Excel/MBBConferenceRankability-Predictability.xlsx
+++ b/Excel/MBBConferenceRankability-Predictability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/Research/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F0677B-02D9-8E49-9447-903C0F956DE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836ED0B6-411D-8B40-8136-83553CA775A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{78CE7975-BADB-4646-976A-C362895C3DAD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{78CE7975-BADB-4646-976A-C362895C3DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankability" sheetId="1" r:id="rId1"/>
@@ -10846,8 +10846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE228201-D4A8-5642-8B94-94DC1AC9F1CF}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12542,16 +12542,10 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C22" s="3">
-        <f>MIN(B2:AC19)</f>
-        <v>0.65484244870821096</v>
-      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C23" s="3">
-        <f>MAX(B2:AC19)</f>
-        <v>0.940494612763073</v>
-      </c>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15994,7 +15988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2857FC-88AE-5342-B358-ECB09C788BCD}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
